--- a/Symbol Guide.xlsx
+++ b/Symbol Guide.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\Visual Studio\XLQuote.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1AA109AF-4758-4E25-81B1-89BF706CEF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE58CD1C-888F-4C8C-BDFA-9DE009EE07ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B02A5-C2F2-4342-B36E-97E2ABC2EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol Guide" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,422 +50,422 @@
     <t>EOD</t>
   </si>
   <si>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>S&amp;P 500 Index</t>
+  </si>
+  <si>
+    <t>SPX@CBOE//IND</t>
+  </si>
+  <si>
+    <t>GSPC.INDX</t>
+  </si>
+  <si>
+    <t>SP500</t>
+  </si>
+  <si>
+    <t>E-mini S&amp;P 500 Future</t>
+  </si>
+  <si>
+    <t>ES@GLOBEX//FUT/202212</t>
+  </si>
+  <si>
+    <t>ES.COMM</t>
+  </si>
+  <si>
+    <t>US 500 Cash CFD</t>
+  </si>
+  <si>
+    <t>IBUS500@SMART//CFD</t>
+  </si>
+  <si>
+    <t>IX.D.SPTRD.IFM.IP</t>
+  </si>
+  <si>
+    <t>US 500 CFD</t>
+  </si>
+  <si>
+    <t>IX.D.SPTRD.FWM1.IP</t>
+  </si>
+  <si>
+    <t>ES Call Option</t>
+  </si>
+  <si>
+    <t>ES@GLOBEX//FOP/20221216/C/3900</t>
+  </si>
+  <si>
+    <t>SPX Call Option</t>
+  </si>
+  <si>
+    <t>SPX@SMART//OPT/20221216/C/3900</t>
+  </si>
+  <si>
+    <t>US 500 Call Option</t>
+  </si>
+  <si>
+    <t>OP.D.SPX1.3900C.IP</t>
+  </si>
+  <si>
+    <t>Apple Inc</t>
+  </si>
+  <si>
+    <t>AAPL@SMART//STK</t>
+  </si>
+  <si>
+    <t>AAPL.US</t>
+  </si>
+  <si>
+    <t>U.S. 10 Year Treasury Yield</t>
+  </si>
+  <si>
+    <t>TNX@CBOE//IND</t>
+  </si>
+  <si>
+    <t>TNX.INDX</t>
+  </si>
+  <si>
+    <t>DGS10</t>
+  </si>
+  <si>
+    <t>10-Year Yield Future</t>
+  </si>
+  <si>
+    <t>10Y@ECBOT//FUT/202206</t>
+  </si>
+  <si>
+    <t>10-Year U.S. Treasury Note Future</t>
+  </si>
+  <si>
+    <t>ZN@ECBOT//FUT/202212</t>
+  </si>
+  <si>
+    <t>ZN.COMM</t>
+  </si>
+  <si>
+    <t>10-Year T-Note CFD</t>
+  </si>
+  <si>
+    <t>IR.D.10YEAR100.FWS.IP</t>
+  </si>
+  <si>
+    <t>10 Year TIPS</t>
+  </si>
+  <si>
+    <t>DFII10</t>
+  </si>
+  <si>
+    <t>10-Year Breakeven Inflation Rate</t>
+  </si>
+  <si>
+    <t>T10YIE</t>
+  </si>
+  <si>
+    <t>5Y/5Y Forward Inflation Expectation Rate</t>
+  </si>
+  <si>
+    <t>T5YIFR</t>
+  </si>
+  <si>
+    <t>Federal Funds Effective Rate</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>SOFR</t>
+  </si>
+  <si>
+    <t>US High Yield</t>
+  </si>
+  <si>
+    <t>BAMLH0A0HYM2EY</t>
+  </si>
+  <si>
+    <t>US High Yield OAS</t>
+  </si>
+  <si>
+    <t>BAMLH0A0HYM2</t>
+  </si>
+  <si>
+    <t>30 Year Mortgage Rate</t>
+  </si>
+  <si>
+    <t>MORTGAGE30US</t>
+  </si>
+  <si>
+    <t>Gold Future</t>
+  </si>
+  <si>
+    <t>GC@NYMEX//FUT/202212</t>
+  </si>
+  <si>
+    <t>MT.D.GC.FWS4.IP</t>
+  </si>
+  <si>
+    <t>GC.COMM</t>
+  </si>
+  <si>
+    <t>GC Put Option</t>
+  </si>
+  <si>
+    <t>GC@NYMEX//FOP/20221122/P/1800</t>
+  </si>
+  <si>
+    <t>OP.D.GC1.1800P.IP</t>
+  </si>
+  <si>
+    <t>Brent Crude Oil Future</t>
+  </si>
+  <si>
+    <t>BZ@NYMEX//FUT/202212</t>
+  </si>
+  <si>
+    <t>EN.D.LCO.FWS4.IP</t>
+  </si>
+  <si>
+    <t>BZ.COMM</t>
+  </si>
+  <si>
+    <t>US Crude Oil Future</t>
+  </si>
+  <si>
+    <t>CL@NYMEX//FUT/202212</t>
+  </si>
+  <si>
+    <t>EN.D.CL.FWS1.IP</t>
+  </si>
+  <si>
+    <t>CL.COMM</t>
+  </si>
+  <si>
+    <t>Gold Spot</t>
+  </si>
+  <si>
+    <t>XAUUSD@SMART//CMDTY</t>
+  </si>
+  <si>
+    <t>CS.D.CFDGOLD.CFDGC.IP</t>
+  </si>
+  <si>
+    <t>XAU-USD.CC</t>
+  </si>
+  <si>
+    <t>Brent Crude Oil</t>
+  </si>
+  <si>
+    <t>CC.D.LCO.UNC.IP</t>
+  </si>
+  <si>
+    <t>DCOILBRENTEU</t>
+  </si>
+  <si>
+    <t>US Crude Oil</t>
+  </si>
+  <si>
+    <t>CC.D.CL.UNC.IP</t>
+  </si>
+  <si>
+    <t>DCOILWTICO</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>LB@GLOBEX//FUT/202207</t>
+  </si>
+  <si>
+    <t>CO.D.LB.FWS2.IP</t>
+  </si>
+  <si>
+    <t>LB.COMM</t>
+  </si>
+  <si>
+    <t>Carbon Emissions</t>
+  </si>
+  <si>
+    <t>CO.D.CFI.FWS1.IP</t>
+  </si>
+  <si>
+    <t>Bloomberg Commodity Index Future</t>
+  </si>
+  <si>
+    <t>AIGCI@ECBOT//FUT/202212</t>
+  </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>VIX@CBOE//IND</t>
+  </si>
+  <si>
+    <t>VIX.INDX</t>
+  </si>
+  <si>
+    <t>VIXCLS</t>
+  </si>
+  <si>
+    <t>VIX Future</t>
+  </si>
+  <si>
+    <t>VIX@CFE//FUT/202212</t>
+  </si>
+  <si>
+    <t>VIX.COMM</t>
+  </si>
+  <si>
+    <t>VIX Option</t>
+  </si>
+  <si>
+    <t>VIX@SMART//OPT/20221220/C/20</t>
+  </si>
+  <si>
+    <t>OP.D.VIX1.2000C.IP</t>
+  </si>
+  <si>
+    <t>EUR/USD</t>
+  </si>
+  <si>
+    <t>EUR.USD/CASH</t>
+  </si>
+  <si>
+    <t>EUR.FOREX</t>
+  </si>
+  <si>
+    <t>DEXUSEU</t>
+  </si>
+  <si>
+    <t>EUR/USD Future</t>
+  </si>
+  <si>
+    <t>EUR@GLOBEX//FUT/202212</t>
+  </si>
+  <si>
+    <t>6E.COMM</t>
+  </si>
+  <si>
+    <t>EUR/USD CFD</t>
+  </si>
+  <si>
+    <t>CS.D.EURUSD.CFD.IP</t>
+  </si>
+  <si>
+    <t>US Dollar Index</t>
+  </si>
+  <si>
+    <t>DXY.INDX</t>
+  </si>
+  <si>
+    <t>US Dollar Index Future</t>
+  </si>
+  <si>
+    <t>DX@NYBOT//FUT/202206</t>
+  </si>
+  <si>
+    <t>DX.COMM</t>
+  </si>
+  <si>
+    <t>US Dollar CFD (undated)</t>
+  </si>
+  <si>
+    <t>CC.D.DX.UNC.IP</t>
+  </si>
+  <si>
+    <t>US Dollar CFD</t>
+  </si>
+  <si>
+    <t>CO.D.DX.FWS1.IP</t>
+  </si>
+  <si>
+    <t>Nominal Broad U.S. Dollar Index</t>
+  </si>
+  <si>
+    <t>DTWEXBGS</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>BTC@PAXOS//CRYPTO</t>
+  </si>
+  <si>
+    <t>BTC-USD.CC</t>
+  </si>
+  <si>
+    <t>CBBTCUSD</t>
+  </si>
+  <si>
+    <t>Bitcoin Future</t>
+  </si>
+  <si>
+    <t>BTC.COMM</t>
+  </si>
+  <si>
+    <t>Bitcoin CFD</t>
+  </si>
+  <si>
+    <t>CS.D.BITCOIN.CFD.IP</t>
+  </si>
+  <si>
+    <t>Bitcoin Option</t>
+  </si>
+  <si>
+    <t>Bitcoin Perpetual</t>
+  </si>
+  <si>
+    <t>Deribit</t>
+  </si>
+  <si>
+    <t>BTC-PERPETUAL</t>
+  </si>
+  <si>
+    <t>BTC_USD</t>
+  </si>
+  <si>
+    <t>BTC-31MAR23</t>
+  </si>
+  <si>
+    <t>BTC-31MAR23-16000-C</t>
+  </si>
+  <si>
+    <t>BRR@CME//FOP/20230331/C/16000</t>
+  </si>
+  <si>
+    <t>BRR@CMECRYPTO//FUT/202301</t>
+  </si>
+  <si>
     <t>Binance</t>
   </si>
   <si>
-    <t>Deribit</t>
-  </si>
-  <si>
-    <t>FRED</t>
-  </si>
-  <si>
-    <t>S&amp;P 500 Index</t>
-  </si>
-  <si>
-    <t>SPX@CBOE//IND</t>
-  </si>
-  <si>
-    <t>GSPC.INDX</t>
-  </si>
-  <si>
-    <t>SP500</t>
-  </si>
-  <si>
-    <t>E-mini S&amp;P 500 Future</t>
-  </si>
-  <si>
-    <t>ES@GLOBEX//FUT/202212</t>
-  </si>
-  <si>
-    <t>ES.COMM</t>
-  </si>
-  <si>
-    <t>US 500 Cash CFD</t>
-  </si>
-  <si>
-    <t>IBUS500@SMART//CFD</t>
-  </si>
-  <si>
-    <t>IX.D.SPTRD.IFM.IP</t>
-  </si>
-  <si>
-    <t>US 500 CFD</t>
-  </si>
-  <si>
-    <t>IX.D.SPTRD.FWM1.IP</t>
-  </si>
-  <si>
-    <t>ES Call Option</t>
-  </si>
-  <si>
-    <t>ES@GLOBEX//FOP/20221216/C/3900</t>
-  </si>
-  <si>
-    <t>SPX Call Option</t>
-  </si>
-  <si>
-    <t>SPX@SMART//OPT/20221216/C/3900</t>
-  </si>
-  <si>
-    <t>US 500 Call Option</t>
-  </si>
-  <si>
-    <t>OP.D.SPX1.3900C.IP</t>
-  </si>
-  <si>
-    <t>Apple Inc</t>
-  </si>
-  <si>
-    <t>AAPL@SMART//STK</t>
-  </si>
-  <si>
-    <t>AAPL.US</t>
-  </si>
-  <si>
-    <t>U.S. 10 Year Treasury Yield</t>
-  </si>
-  <si>
-    <t>TNX@CBOE//IND</t>
-  </si>
-  <si>
-    <t>TNX.INDX</t>
-  </si>
-  <si>
-    <t>DGS10</t>
-  </si>
-  <si>
-    <t>10-Year Yield Future</t>
-  </si>
-  <si>
-    <t>10Y@ECBOT//FUT/202206</t>
-  </si>
-  <si>
-    <t>10-Year U.S. Treasury Note Future</t>
-  </si>
-  <si>
-    <t>ZN@ECBOT//FUT/202212</t>
-  </si>
-  <si>
-    <t>ZN.COMM</t>
-  </si>
-  <si>
-    <t>10-Year T-Note CFD</t>
-  </si>
-  <si>
-    <t>IR.D.10YEAR100.FWS.IP</t>
-  </si>
-  <si>
-    <t>10 Year TIPS</t>
-  </si>
-  <si>
-    <t>DFII10</t>
-  </si>
-  <si>
-    <t>10-Year Breakeven Inflation Rate</t>
-  </si>
-  <si>
-    <t>T10YIE</t>
-  </si>
-  <si>
-    <t>5Y/5Y Forward Inflation Expectation Rate</t>
-  </si>
-  <si>
-    <t>T5YIFR</t>
-  </si>
-  <si>
-    <t>Federal Funds Effective Rate</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>SOFR</t>
-  </si>
-  <si>
-    <t>US High Yield</t>
-  </si>
-  <si>
-    <t>BAMLH0A0HYM2EY</t>
-  </si>
-  <si>
-    <t>US High Yield OAS</t>
-  </si>
-  <si>
-    <t>BAMLH0A0HYM2</t>
-  </si>
-  <si>
-    <t>30 Year Mortgage Rate</t>
-  </si>
-  <si>
-    <t>MORTGAGE30US</t>
-  </si>
-  <si>
-    <t>Gold Future</t>
-  </si>
-  <si>
-    <t>GC@NYMEX//FUT/202212</t>
-  </si>
-  <si>
-    <t>MT.D.GC.FWS4.IP</t>
-  </si>
-  <si>
-    <t>GC.COMM</t>
-  </si>
-  <si>
-    <t>GC Put Option</t>
-  </si>
-  <si>
-    <t>GC@NYMEX//FOP/20221122/P/1800</t>
-  </si>
-  <si>
-    <t>OP.D.GC1.1800P.IP</t>
-  </si>
-  <si>
-    <t>Brent Crude Oil Future</t>
-  </si>
-  <si>
-    <t>BZ@NYMEX//FUT/202212</t>
-  </si>
-  <si>
-    <t>EN.D.LCO.FWS4.IP</t>
-  </si>
-  <si>
-    <t>BZ.COMM</t>
-  </si>
-  <si>
-    <t>US Crude Oil Future</t>
-  </si>
-  <si>
-    <t>CL@NYMEX//FUT/202212</t>
-  </si>
-  <si>
-    <t>EN.D.CL.FWS1.IP</t>
-  </si>
-  <si>
-    <t>CL.COMM</t>
-  </si>
-  <si>
-    <t>Gold Spot</t>
-  </si>
-  <si>
-    <t>XAUUSD@SMART//CMDTY</t>
-  </si>
-  <si>
-    <t>CS.D.CFDGOLD.CFDGC.IP</t>
-  </si>
-  <si>
-    <t>XAU-USD.CC</t>
-  </si>
-  <si>
-    <t>Brent Crude Oil</t>
-  </si>
-  <si>
-    <t>CC.D.LCO.UNC.IP</t>
-  </si>
-  <si>
-    <t>DCOILBRENTEU</t>
-  </si>
-  <si>
-    <t>US Crude Oil</t>
-  </si>
-  <si>
-    <t>CC.D.CL.UNC.IP</t>
-  </si>
-  <si>
-    <t>DCOILWTICO</t>
-  </si>
-  <si>
-    <t>Lumber</t>
-  </si>
-  <si>
-    <t>LB@GLOBEX//FUT/202207</t>
-  </si>
-  <si>
-    <t>CO.D.LB.FWS2.IP</t>
-  </si>
-  <si>
-    <t>LB.COMM</t>
-  </si>
-  <si>
-    <t>Carbon Emissions</t>
-  </si>
-  <si>
-    <t>CO.D.CFI.FWS1.IP</t>
-  </si>
-  <si>
-    <t>Bloomberg Commodity Index Future</t>
-  </si>
-  <si>
-    <t>AIGCI@ECBOT//FUT/202212</t>
-  </si>
-  <si>
-    <t>VIX</t>
-  </si>
-  <si>
-    <t>VIX@CBOE//IND</t>
-  </si>
-  <si>
-    <t>VIX.INDX</t>
-  </si>
-  <si>
-    <t>VIXCLS</t>
-  </si>
-  <si>
-    <t>VIX Future</t>
-  </si>
-  <si>
-    <t>VIX@CFE//FUT/202212</t>
-  </si>
-  <si>
-    <t>VIX.COMM</t>
-  </si>
-  <si>
-    <t>VIX Option</t>
-  </si>
-  <si>
-    <t>VIX@SMART//OPT/20221220/C/20</t>
-  </si>
-  <si>
-    <t>OP.D.VIX1.2000C.IP</t>
-  </si>
-  <si>
-    <t>EUR/USD</t>
-  </si>
-  <si>
-    <t>EUR.USD/CASH</t>
-  </si>
-  <si>
-    <t>EUR.FOREX</t>
-  </si>
-  <si>
-    <t>DEXUSEU</t>
-  </si>
-  <si>
-    <t>EUR/USD Future</t>
-  </si>
-  <si>
-    <t>EUR@GLOBEX//FUT/202212</t>
-  </si>
-  <si>
-    <t>6E.COMM</t>
-  </si>
-  <si>
-    <t>EUR/USD CFD</t>
-  </si>
-  <si>
-    <t>CS.D.EURUSD.CFD.IP</t>
-  </si>
-  <si>
-    <t>US Dollar Index</t>
-  </si>
-  <si>
-    <t>DXY.INDX</t>
-  </si>
-  <si>
-    <t>US Dollar Index Future</t>
-  </si>
-  <si>
-    <t>DX@NYBOT//FUT/202206</t>
-  </si>
-  <si>
-    <t>DX.COMM</t>
-  </si>
-  <si>
-    <t>US Dollar CFD (undated)</t>
-  </si>
-  <si>
-    <t>CC.D.DX.UNC.IP</t>
-  </si>
-  <si>
-    <t>US Dollar CFD</t>
-  </si>
-  <si>
-    <t>CO.D.DX.FWS1.IP</t>
-  </si>
-  <si>
-    <t>Nominal Broad U.S. Dollar Index</t>
-  </si>
-  <si>
-    <t>DTWEXBGS</t>
-  </si>
-  <si>
-    <t>Bitcoin</t>
-  </si>
-  <si>
-    <t>BTC@PAXOS//CRYPTO</t>
-  </si>
-  <si>
-    <t>BTC-USD.CC</t>
+    <t>Bitcoin CM Perpetual</t>
+  </si>
+  <si>
+    <t>Bitcoin CM Future</t>
   </si>
   <si>
     <t>BTCUSDT</t>
   </si>
   <si>
-    <t>BTC_USD</t>
-  </si>
-  <si>
-    <t>CBBTCUSD</t>
-  </si>
-  <si>
-    <t>Bitcoin Perpetual</t>
-  </si>
-  <si>
     <t>BTCUSDT_PERP</t>
   </si>
   <si>
-    <t>BTC-PERPETUAL</t>
-  </si>
-  <si>
-    <t>Bitcoin CM Perpetual</t>
-  </si>
-  <si>
     <t>BTCUSD CM_PERP</t>
   </si>
   <si>
-    <t>Bitcoin Future</t>
-  </si>
-  <si>
-    <t>BRR@CMECRYPTO//FUT/202301</t>
-  </si>
-  <si>
-    <t>BTC.COMM</t>
-  </si>
-  <si>
     <t>BTCUSDT_230929</t>
   </si>
   <si>
-    <t>BTC-31MAR23</t>
-  </si>
-  <si>
-    <t>Bitcoin CM Future</t>
-  </si>
-  <si>
     <t>BTCUSD CM_230929</t>
   </si>
   <si>
-    <t>Bitcoin Option</t>
-  </si>
-  <si>
-    <t>BRR@CME//FOP/20230331/C/16000</t>
-  </si>
-  <si>
     <t>BTC-230929-30000-C</t>
-  </si>
-  <si>
-    <t>BTC-31MAR23-16000-C</t>
-  </si>
-  <si>
-    <t>Bitcoin CFD</t>
-  </si>
-  <si>
-    <t>CS.D.BITCOIN.CFD.IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,7 +805,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -815,7 +815,7 @@
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,81 +829,81 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -911,12 +911,12 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -924,57 +924,57 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -982,37 +982,37 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1020,12 +1020,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1033,12 +1033,12 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1046,12 +1046,12 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1059,12 +1059,12 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1072,12 +1072,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1085,12 +1085,12 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1098,12 +1098,12 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1111,158 +1111,158 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1270,155 +1270,155 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1426,114 +1426,114 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>

--- a/Symbol Guide.xlsx
+++ b/Symbol Guide.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28822"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\Visual Studio\XLQuote.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B02A5-C2F2-4342-B36E-97E2ABC2EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{7D7B02A5-C2F2-4342-B36E-97E2ABC2EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98FFB524-A56D-431E-AF18-88A8F44F4A1E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol Guide" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
   <si>
     <t>Description</t>
   </si>
@@ -47,9 +47,21 @@
     <t>IG</t>
   </si>
   <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
     <t>EOD</t>
   </si>
   <si>
+    <t>Binance</t>
+  </si>
+  <si>
+    <t>Deribit</t>
+  </si>
+  <si>
     <t>FRED</t>
   </si>
   <si>
@@ -59,6 +71,12 @@
     <t>SPX@CBOE//IND</t>
   </si>
   <si>
+    <t>^GSPC</t>
+  </si>
+  <si>
+    <t>AMERICA/CBOE:SPX</t>
+  </si>
+  <si>
     <t>GSPC.INDX</t>
   </si>
   <si>
@@ -71,6 +89,12 @@
     <t>ES@GLOBEX//FUT/202212</t>
   </si>
   <si>
+    <t>ES=F</t>
+  </si>
+  <si>
+    <t>FUTURES/CME_MINI:ES1!</t>
+  </si>
+  <si>
     <t>ES.COMM</t>
   </si>
   <si>
@@ -83,6 +107,9 @@
     <t>IX.D.SPTRD.IFM.IP</t>
   </si>
   <si>
+    <t>CFD/SP:SPX</t>
+  </si>
+  <si>
     <t>US 500 CFD</t>
   </si>
   <si>
@@ -101,6 +128,9 @@
     <t>SPX@SMART//OPT/20221216/C/3900</t>
   </si>
   <si>
+    <t>SPX211217C03900000</t>
+  </si>
+  <si>
     <t>US 500 Call Option</t>
   </si>
   <si>
@@ -113,6 +143,12 @@
     <t>AAPL@SMART//STK</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>AMERICA/NASDAQ:AAPL</t>
+  </si>
+  <si>
     <t>AAPL.US</t>
   </si>
   <si>
@@ -122,6 +158,12 @@
     <t>TNX@CBOE//IND</t>
   </si>
   <si>
+    <t>^TNX</t>
+  </si>
+  <si>
+    <t>BONDS/TVC:US10Y</t>
+  </si>
+  <si>
     <t>TNX.INDX</t>
   </si>
   <si>
@@ -134,12 +176,18 @@
     <t>10Y@ECBOT//FUT/202206</t>
   </si>
   <si>
+    <t>10Y=F</t>
+  </si>
+  <si>
     <t>10-Year U.S. Treasury Note Future</t>
   </si>
   <si>
     <t>ZN@ECBOT//FUT/202212</t>
   </si>
   <si>
+    <t>ZN=F</t>
+  </si>
+  <si>
     <t>ZN.COMM</t>
   </si>
   <si>
@@ -203,6 +251,12 @@
     <t>MT.D.GC.FWS4.IP</t>
   </si>
   <si>
+    <t>GC=F</t>
+  </si>
+  <si>
+    <t>FUTURES/COMEX:GC1!</t>
+  </si>
+  <si>
     <t>GC.COMM</t>
   </si>
   <si>
@@ -224,6 +278,12 @@
     <t>EN.D.LCO.FWS4.IP</t>
   </si>
   <si>
+    <t>BZ=F</t>
+  </si>
+  <si>
+    <t>FUTURES/NYMEX_MINI:MBC1!</t>
+  </si>
+  <si>
     <t>BZ.COMM</t>
   </si>
   <si>
@@ -299,6 +359,12 @@
     <t>VIX@CBOE//IND</t>
   </si>
   <si>
+    <t>^VIX</t>
+  </si>
+  <si>
+    <t>AMERICA/CBOE:VIX</t>
+  </si>
+  <si>
     <t>VIX.INDX</t>
   </si>
   <si>
@@ -329,6 +395,12 @@
     <t>EUR.USD/CASH</t>
   </si>
   <si>
+    <t>EURUSD=X</t>
+  </si>
+  <si>
+    <t>FOREX/FX_IDC:EURUSD</t>
+  </si>
+  <si>
     <t>EUR.FOREX</t>
   </si>
   <si>
@@ -353,6 +425,9 @@
     <t>US Dollar Index</t>
   </si>
   <si>
+    <t>DX-Y.NYB</t>
+  </si>
+  <si>
     <t>DXY.INDX</t>
   </si>
   <si>
@@ -371,6 +446,9 @@
     <t>CC.D.DX.UNC.IP</t>
   </si>
   <si>
+    <t>CFD/TVC:DXY</t>
+  </si>
+  <si>
     <t>US Dollar CFD</t>
   </si>
   <si>
@@ -389,83 +467,83 @@
     <t>BTC@PAXOS//CRYPTO</t>
   </si>
   <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
+    <t>COIN/CRYPTO:BTCUSD</t>
+  </si>
+  <si>
     <t>BTC-USD.CC</t>
   </si>
   <si>
+    <t>BTCUSDT</t>
+  </si>
+  <si>
+    <t>BTC_USD</t>
+  </si>
+  <si>
     <t>CBBTCUSD</t>
   </si>
   <si>
+    <t>Bitcoin Perpetual</t>
+  </si>
+  <si>
+    <t>BTCUSDT_PERP</t>
+  </si>
+  <si>
+    <t>BTC-PERPETUAL</t>
+  </si>
+  <si>
+    <t>Bitcoin CM Perpetual</t>
+  </si>
+  <si>
+    <t>BTCUSD CM_PERP</t>
+  </si>
+  <si>
     <t>Bitcoin Future</t>
   </si>
   <si>
+    <t>BRR@CMECRYPTO//FUT/202301</t>
+  </si>
+  <si>
     <t>BTC.COMM</t>
   </si>
   <si>
+    <t>BTCUSDT_230929</t>
+  </si>
+  <si>
+    <t>BTC-31MAR23</t>
+  </si>
+  <si>
+    <t>Bitcoin CM Future</t>
+  </si>
+  <si>
+    <t>BTCUSD CM_230929</t>
+  </si>
+  <si>
+    <t>Bitcoin Option</t>
+  </si>
+  <si>
+    <t>BRR@CME//FOP/20230331/C/16000</t>
+  </si>
+  <si>
+    <t>BTC-230929-30000-C</t>
+  </si>
+  <si>
+    <t>BTC-31MAR23-16000-C</t>
+  </si>
+  <si>
     <t>Bitcoin CFD</t>
   </si>
   <si>
     <t>CS.D.BITCOIN.CFD.IP</t>
-  </si>
-  <si>
-    <t>Bitcoin Option</t>
-  </si>
-  <si>
-    <t>Bitcoin Perpetual</t>
-  </si>
-  <si>
-    <t>Deribit</t>
-  </si>
-  <si>
-    <t>BTC-PERPETUAL</t>
-  </si>
-  <si>
-    <t>BTC_USD</t>
-  </si>
-  <si>
-    <t>BTC-31MAR23</t>
-  </si>
-  <si>
-    <t>BTC-31MAR23-16000-C</t>
-  </si>
-  <si>
-    <t>BRR@CME//FOP/20230331/C/16000</t>
-  </si>
-  <si>
-    <t>BRR@CMECRYPTO//FUT/202301</t>
-  </si>
-  <si>
-    <t>Binance</t>
-  </si>
-  <si>
-    <t>Bitcoin CM Perpetual</t>
-  </si>
-  <si>
-    <t>Bitcoin CM Future</t>
-  </si>
-  <si>
-    <t>BTCUSDT</t>
-  </si>
-  <si>
-    <t>BTCUSDT_PERP</t>
-  </si>
-  <si>
-    <t>BTCUSD CM_PERP</t>
-  </si>
-  <si>
-    <t>BTCUSDT_230929</t>
-  </si>
-  <si>
-    <t>BTCUSD CM_230929</t>
-  </si>
-  <si>
-    <t>BTC-230929-30000-C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,21 +879,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,716 +909,866 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Symbol Guide.xlsx
+++ b/Symbol Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\Visual Studio\XLQuote.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\XLQuote.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{7D7B02A5-C2F2-4342-B36E-97E2ABC2EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98FFB524-A56D-431E-AF18-88A8F44F4A1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5C8A3D-89DE-4BB7-A943-ED64C5CB3B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbol Guide" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,19 +883,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,7 +947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>103</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>126</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>128</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>131</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>134</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>137</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>139</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>149</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>152</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>154</v>
       </c>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>159</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>161</v>
       </c>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>165</v>
       </c>
